--- a/exel/cleartrip.xlsx
+++ b/exel/cleartrip.xlsx
@@ -36,9 +36,6 @@
     <t>Email Id</t>
   </si>
   <si>
-    <t>jhvbjhbvjh@gmail.com</t>
-  </si>
-  <si>
     <t>Shubham@33</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>scbahcvbs</t>
+  </si>
+  <si>
+    <t>jhvbjhkibvjh@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,19 +437,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
       <c r="F2">
         <v>9595993008</v>
